--- a/P2/Resources/Labeling.xlsx
+++ b/P2/Resources/Labeling.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nombre</t>
   </si>
@@ -101,6 +101,31 @@
   </si>
   <si>
     <t>Nos mostrará la información del agricultor y todos los productos que vende, además habrá un mapa con su ubicación en caso de disponer de esta.</t>
+  </si>
+  <si>
+    <t>Catálogo (catalog.html)</t>
+  </si>
+  <si>
+    <t>Muestra todos los productos agrarios disponibles en la plataforma. Este se muestra al pulsar sobre catalogo (mostrará todo), al realizar una búsqueda por nombre de producto o por ubicación (mostrará solo las coincidencias) o al pulsar sobre una categoría (mostrará solo dicha categoría), además permitirá acceder a la información
+ de cada producto o añadirlo a la cesta directamente.</t>
+  </si>
+  <si>
+    <t>Ofertas (offers.html)</t>
+  </si>
+  <si>
+    <t>Muestra el listado de ofertas disponibles en ese momento.</t>
+  </si>
+  <si>
+    <t>Categorías (category.html)</t>
+  </si>
+  <si>
+    <t>Muestra todas las categorías de productos que hay en la plataforma.</t>
+  </si>
+  <si>
+    <t>Producto (product.html)</t>
+  </si>
+  <si>
+    <t>Muestra la información de un producto y permitirá añadirlo a la cesta.</t>
   </si>
 </sst>
 </file>
@@ -491,6 +516,38 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
